--- a/Presence.xlsx
+++ b/Presence.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CS162\ProjectFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD7328C-E036-4973-8635-91E9738DB097}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699191B2-DED4-4A4F-8166-1319C704F2BD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10140" windowHeight="5724" xr2:uid="{B5BF6E79-C2C5-4EDB-B47E-C5BD18C755E0}"/>
   </bookViews>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E407E95-0E58-4E68-9F13-5A3EE8FC2082}">
   <dimension ref="A1:K856"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A745" workbookViewId="0">
-      <selection activeCell="H756" sqref="H756"/>
+    <sheetView tabSelected="1" topLeftCell="A730" workbookViewId="0">
+      <selection activeCell="I753" sqref="I753:I856"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,7 +522,7 @@
         <v>1751047</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -557,7 +557,7 @@
         <v>1751048</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -592,7 +592,7 @@
         <v>1751049</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -627,7 +627,7 @@
         <v>1751050</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -662,7 +662,7 @@
         <v>1751051</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -697,7 +697,7 @@
         <v>1751052</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -732,7 +732,7 @@
         <v>1751053</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -767,7 +767,7 @@
         <v>1751054</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>1751055</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -837,7 +837,7 @@
         <v>1751125</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -872,7 +872,7 @@
         <v>1751057</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1751058</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -942,7 +942,7 @@
         <v>1751029</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -977,7 +977,7 @@
         <v>1751059</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1012,7 +1012,7 @@
         <v>1751002</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1047,7 +1047,7 @@
         <v>1751001</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1082,7 +1082,7 @@
         <v>1751060</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1117,7 +1117,7 @@
         <v>1751061</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1152,7 +1152,7 @@
         <v>1751062</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1187,7 +1187,7 @@
         <v>1751063</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1222,7 +1222,7 @@
         <v>1751064</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1257,7 +1257,7 @@
         <v>1751065</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1292,7 +1292,7 @@
         <v>1751004</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1327,7 +1327,7 @@
         <v>1751045</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1362,7 +1362,7 @@
         <v>1751005</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1397,7 +1397,7 @@
         <v>1751066</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1432,7 +1432,7 @@
         <v>1751067</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1467,7 +1467,7 @@
         <v>1751068</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1502,7 +1502,7 @@
         <v>1751069</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1537,7 +1537,7 @@
         <v>1751070</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1572,7 +1572,7 @@
         <v>1751008</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1607,7 +1607,7 @@
         <v>1751030</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1642,7 +1642,7 @@
         <v>1751071</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1677,7 +1677,7 @@
         <v>1751072</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1712,7 +1712,7 @@
         <v>1751074</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1747,7 +1747,7 @@
         <v>1751076</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1782,7 +1782,7 @@
         <v>1751077</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1817,7 +1817,7 @@
         <v>1751124</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1852,7 +1852,7 @@
         <v>1751039</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1887,7 +1887,7 @@
         <v>1751031</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1922,7 +1922,7 @@
         <v>1751078</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1957,7 +1957,7 @@
         <v>1751080</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1992,7 +1992,7 @@
         <v>1751041</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2027,7 +2027,7 @@
         <v>1751011</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2062,7 +2062,7 @@
         <v>1751081</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2097,7 +2097,7 @@
         <v>1751082</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2132,7 +2132,7 @@
         <v>1751012</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2167,7 +2167,7 @@
         <v>1751043</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2202,7 +2202,7 @@
         <v>1751013</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2237,7 +2237,7 @@
         <v>1751083</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2272,7 +2272,7 @@
         <v>1751084</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2307,7 +2307,7 @@
         <v>1751085</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2342,7 +2342,7 @@
         <v>1751016</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2377,7 +2377,7 @@
         <v>1751033</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2412,7 +2412,7 @@
         <v>1751086</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2447,7 +2447,7 @@
         <v>1751087</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2482,7 +2482,7 @@
         <v>1751089</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2517,7 +2517,7 @@
         <v>1751090</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2552,7 +2552,7 @@
         <v>1751091</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2587,7 +2587,7 @@
         <v>1751092</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2622,7 +2622,7 @@
         <v>1751093</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -2657,7 +2657,7 @@
         <v>1751094</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -2692,7 +2692,7 @@
         <v>1751046</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -2727,7 +2727,7 @@
         <v>1751096</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2762,7 +2762,7 @@
         <v>1751097</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -2797,7 +2797,7 @@
         <v>1751035</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -2832,7 +2832,7 @@
         <v>1751098</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -2867,7 +2867,7 @@
         <v>1751099</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -2902,7 +2902,7 @@
         <v>1751100</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -2937,7 +2937,7 @@
         <v>1751018</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -2972,7 +2972,7 @@
         <v>1751101</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -3007,7 +3007,7 @@
         <v>1751021</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -3042,7 +3042,7 @@
         <v>1751102</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -3077,7 +3077,7 @@
         <v>1751019</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -3112,7 +3112,7 @@
         <v>1751103</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -3147,7 +3147,7 @@
         <v>1751020</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -3182,7 +3182,7 @@
         <v>1751040</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -3217,7 +3217,7 @@
         <v>1751104</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -3252,7 +3252,7 @@
         <v>1751022</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -3287,7 +3287,7 @@
         <v>1751105</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -3322,7 +3322,7 @@
         <v>1751023</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -3357,7 +3357,7 @@
         <v>1751036</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -3392,7 +3392,7 @@
         <v>1751037</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -3427,7 +3427,7 @@
         <v>1751042</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -3462,7 +3462,7 @@
         <v>1751106</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -3497,7 +3497,7 @@
         <v>1751107</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -3532,7 +3532,7 @@
         <v>1751024</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -3567,7 +3567,7 @@
         <v>1751108</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -3602,7 +3602,7 @@
         <v>1751109</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -3637,7 +3637,7 @@
         <v>1751044</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -3672,7 +3672,7 @@
         <v>1751111</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -3707,7 +3707,7 @@
         <v>1751112</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -3742,7 +3742,7 @@
         <v>1751113</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -3777,7 +3777,7 @@
         <v>1751026</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -3812,7 +3812,7 @@
         <v>1751114</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -3847,7 +3847,7 @@
         <v>1751115</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -3882,7 +3882,7 @@
         <v>1751116</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -3917,7 +3917,7 @@
         <v>1751119</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -3952,7 +3952,7 @@
         <v>1751120</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -3987,7 +3987,7 @@
         <v>1751121</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -4022,7 +4022,7 @@
         <v>1751122</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -4057,7 +4057,7 @@
         <v>1751027</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -4092,7 +4092,7 @@
         <v>1751028</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -4127,7 +4127,7 @@
         <v>1751123</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4222,7 +4222,7 @@
         <v>1</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -4257,7 +4257,7 @@
         <v>1</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -4292,7 +4292,7 @@
         <v>1</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -4327,7 +4327,7 @@
         <v>1</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -4362,7 +4362,7 @@
         <v>1</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -4397,7 +4397,7 @@
         <v>1</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -4432,7 +4432,7 @@
         <v>1</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -4502,7 +4502,7 @@
         <v>1</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -4572,7 +4572,7 @@
         <v>1</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -4607,7 +4607,7 @@
         <v>1</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -4642,7 +4642,7 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -4677,7 +4677,7 @@
         <v>1</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -4712,7 +4712,7 @@
         <v>1</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -4747,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -4782,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -4817,7 +4817,7 @@
         <v>1</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -4852,7 +4852,7 @@
         <v>1</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -4887,7 +4887,7 @@
         <v>1</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -4922,7 +4922,7 @@
         <v>1</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -4957,7 +4957,7 @@
         <v>1</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -4992,7 +4992,7 @@
         <v>1</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -5027,7 +5027,7 @@
         <v>1</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -5062,7 +5062,7 @@
         <v>1</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -5097,7 +5097,7 @@
         <v>1</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -5132,7 +5132,7 @@
         <v>1</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -5167,7 +5167,7 @@
         <v>1</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -5202,7 +5202,7 @@
         <v>1</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -5237,7 +5237,7 @@
         <v>1</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -5272,7 +5272,7 @@
         <v>1</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -5307,7 +5307,7 @@
         <v>1</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -5342,7 +5342,7 @@
         <v>1</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -5377,7 +5377,7 @@
         <v>1</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -5412,7 +5412,7 @@
         <v>1</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D145">
         <v>1</v>
@@ -5447,7 +5447,7 @@
         <v>1</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -5482,7 +5482,7 @@
         <v>1</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         <v>1</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -5552,7 +5552,7 @@
         <v>1</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -5587,7 +5587,7 @@
         <v>1</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -5622,7 +5622,7 @@
         <v>1</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D151">
         <v>1</v>
@@ -5657,7 +5657,7 @@
         <v>1</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -5692,7 +5692,7 @@
         <v>1</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D154">
         <v>1</v>
@@ -5762,7 +5762,7 @@
         <v>1</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -5797,7 +5797,7 @@
         <v>1</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -5832,7 +5832,7 @@
         <v>1</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D157">
         <v>1</v>
@@ -5867,7 +5867,7 @@
         <v>1</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D158">
         <v>1</v>
@@ -5902,7 +5902,7 @@
         <v>1</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -5937,7 +5937,7 @@
         <v>1</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D160">
         <v>1</v>
@@ -5972,7 +5972,7 @@
         <v>1</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D161">
         <v>1</v>
@@ -6007,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -6042,7 +6042,7 @@
         <v>1</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -6077,7 +6077,7 @@
         <v>1</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -6112,7 +6112,7 @@
         <v>1</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -6147,7 +6147,7 @@
         <v>1</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D166">
         <v>1</v>
@@ -6182,7 +6182,7 @@
         <v>1</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D167">
         <v>1</v>
@@ -6217,7 +6217,7 @@
         <v>1</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -6252,7 +6252,7 @@
         <v>1</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -6287,7 +6287,7 @@
         <v>1</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -6322,7 +6322,7 @@
         <v>1</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D171">
         <v>1</v>
@@ -6357,7 +6357,7 @@
         <v>1</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -6392,7 +6392,7 @@
         <v>1</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D173">
         <v>1</v>
@@ -6427,7 +6427,7 @@
         <v>1</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -6462,7 +6462,7 @@
         <v>1</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D175">
         <v>1</v>
@@ -6497,7 +6497,7 @@
         <v>1</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D176">
         <v>1</v>
@@ -6532,7 +6532,7 @@
         <v>1</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D177">
         <v>1</v>
@@ -6567,7 +6567,7 @@
         <v>1</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D178">
         <v>1</v>
@@ -6602,7 +6602,7 @@
         <v>1</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -6637,7 +6637,7 @@
         <v>1</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D180">
         <v>1</v>
@@ -6672,7 +6672,7 @@
         <v>1</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D181">
         <v>1</v>
@@ -6707,7 +6707,7 @@
         <v>1</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -6742,7 +6742,7 @@
         <v>1</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -6777,7 +6777,7 @@
         <v>1</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D184">
         <v>1</v>
@@ -6812,7 +6812,7 @@
         <v>1</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D185">
         <v>1</v>
@@ -6847,7 +6847,7 @@
         <v>1</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -6882,7 +6882,7 @@
         <v>1</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D187">
         <v>1</v>
@@ -6917,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D188">
         <v>1</v>
@@ -6952,7 +6952,7 @@
         <v>1</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D189">
         <v>1</v>
@@ -6987,7 +6987,7 @@
         <v>1</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -7022,7 +7022,7 @@
         <v>1</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -7057,7 +7057,7 @@
         <v>1</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -7092,7 +7092,7 @@
         <v>1</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -7127,7 +7127,7 @@
         <v>1</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -7162,7 +7162,7 @@
         <v>1</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -7197,7 +7197,7 @@
         <v>1</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -7232,7 +7232,7 @@
         <v>1</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D197">
         <v>1</v>
@@ -7267,7 +7267,7 @@
         <v>1</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -7302,7 +7302,7 @@
         <v>1</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -7337,7 +7337,7 @@
         <v>1</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D200">
         <v>1</v>
@@ -7372,7 +7372,7 @@
         <v>1</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D201">
         <v>1</v>
@@ -7407,7 +7407,7 @@
         <v>1</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D202">
         <v>1</v>
@@ -7442,7 +7442,7 @@
         <v>1</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D203">
         <v>1</v>
@@ -7477,7 +7477,7 @@
         <v>1</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D204">
         <v>1</v>
@@ -7512,7 +7512,7 @@
         <v>1</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -7547,7 +7547,7 @@
         <v>1</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D206">
         <v>1</v>
@@ -7582,7 +7582,7 @@
         <v>1</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D207">
         <v>1</v>
@@ -7617,7 +7617,7 @@
         <v>1</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D208">
         <v>1</v>
@@ -7652,7 +7652,7 @@
         <v>1</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D209">
         <v>1</v>
@@ -7687,7 +7687,7 @@
         <v>1</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D210">
         <v>1</v>
@@ -7722,7 +7722,7 @@
         <v>1</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -7757,7 +7757,7 @@
         <v>1</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D212">
         <v>1</v>
@@ -7792,7 +7792,7 @@
         <v>1</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D213">
         <v>1</v>
@@ -7827,7 +7827,7 @@
         <v>1</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D214">
         <v>1</v>
@@ -7922,7 +7922,7 @@
         <v>1</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E218">
         <v>1</v>
@@ -7957,7 +7957,7 @@
         <v>1</v>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E219">
         <v>1</v>
@@ -7992,7 +7992,7 @@
         <v>1</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E220">
         <v>1</v>
@@ -8027,7 +8027,7 @@
         <v>1</v>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E221">
         <v>1</v>
@@ -8062,7 +8062,7 @@
         <v>1</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E222">
         <v>1</v>
@@ -8097,7 +8097,7 @@
         <v>1</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E223">
         <v>1</v>
@@ -8132,7 +8132,7 @@
         <v>1</v>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -8167,7 +8167,7 @@
         <v>1</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E225">
         <v>1</v>
@@ -8202,7 +8202,7 @@
         <v>1</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E226">
         <v>1</v>
@@ -8237,7 +8237,7 @@
         <v>1</v>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -8272,7 +8272,7 @@
         <v>1</v>
       </c>
       <c r="D228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -8307,7 +8307,7 @@
         <v>1</v>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -8342,7 +8342,7 @@
         <v>1</v>
       </c>
       <c r="D230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -8377,7 +8377,7 @@
         <v>1</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -8412,7 +8412,7 @@
         <v>1</v>
       </c>
       <c r="D232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E232">
         <v>1</v>
@@ -8447,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="D233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E233">
         <v>1</v>
@@ -8482,7 +8482,7 @@
         <v>1</v>
       </c>
       <c r="D234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E234">
         <v>1</v>
@@ -8517,7 +8517,7 @@
         <v>1</v>
       </c>
       <c r="D235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -8552,7 +8552,7 @@
         <v>1</v>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -8587,7 +8587,7 @@
         <v>1</v>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E237">
         <v>1</v>
@@ -8622,7 +8622,7 @@
         <v>1</v>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E238">
         <v>1</v>
@@ -8657,7 +8657,7 @@
         <v>1</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E239">
         <v>1</v>
@@ -8692,7 +8692,7 @@
         <v>1</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E240">
         <v>1</v>
@@ -8727,7 +8727,7 @@
         <v>1</v>
       </c>
       <c r="D241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E241">
         <v>1</v>
@@ -8762,7 +8762,7 @@
         <v>1</v>
       </c>
       <c r="D242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E242">
         <v>1</v>
@@ -8797,7 +8797,7 @@
         <v>1</v>
       </c>
       <c r="D243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E243">
         <v>1</v>
@@ -8832,7 +8832,7 @@
         <v>1</v>
       </c>
       <c r="D244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -8867,7 +8867,7 @@
         <v>1</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -8902,7 +8902,7 @@
         <v>1</v>
       </c>
       <c r="D246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -8937,7 +8937,7 @@
         <v>1</v>
       </c>
       <c r="D247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -8972,7 +8972,7 @@
         <v>1</v>
       </c>
       <c r="D248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E248">
         <v>1</v>
@@ -9007,7 +9007,7 @@
         <v>1</v>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E249">
         <v>1</v>
@@ -9042,7 +9042,7 @@
         <v>1</v>
       </c>
       <c r="D250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E250">
         <v>1</v>
@@ -9077,7 +9077,7 @@
         <v>1</v>
       </c>
       <c r="D251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E251">
         <v>1</v>
@@ -9112,7 +9112,7 @@
         <v>1</v>
       </c>
       <c r="D252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E252">
         <v>1</v>
@@ -9147,7 +9147,7 @@
         <v>1</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E253">
         <v>1</v>
@@ -9182,7 +9182,7 @@
         <v>1</v>
       </c>
       <c r="D254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -9217,7 +9217,7 @@
         <v>1</v>
       </c>
       <c r="D255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E255">
         <v>1</v>
@@ -9252,7 +9252,7 @@
         <v>1</v>
       </c>
       <c r="D256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E256">
         <v>1</v>
@@ -9287,7 +9287,7 @@
         <v>1</v>
       </c>
       <c r="D257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E257">
         <v>1</v>
@@ -9322,7 +9322,7 @@
         <v>1</v>
       </c>
       <c r="D258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E258">
         <v>1</v>
@@ -9357,7 +9357,7 @@
         <v>1</v>
       </c>
       <c r="D259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E259">
         <v>1</v>
@@ -9392,7 +9392,7 @@
         <v>1</v>
       </c>
       <c r="D260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E260">
         <v>1</v>
@@ -9427,7 +9427,7 @@
         <v>1</v>
       </c>
       <c r="D261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E261">
         <v>1</v>
@@ -9462,7 +9462,7 @@
         <v>1</v>
       </c>
       <c r="D262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E262">
         <v>1</v>
@@ -9497,7 +9497,7 @@
         <v>1</v>
       </c>
       <c r="D263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E263">
         <v>1</v>
@@ -9532,7 +9532,7 @@
         <v>1</v>
       </c>
       <c r="D264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E264">
         <v>1</v>
@@ -9567,7 +9567,7 @@
         <v>1</v>
       </c>
       <c r="D265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E265">
         <v>1</v>
@@ -9602,7 +9602,7 @@
         <v>1</v>
       </c>
       <c r="D266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E266">
         <v>1</v>
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="D267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E267">
         <v>1</v>
@@ -9672,7 +9672,7 @@
         <v>1</v>
       </c>
       <c r="D268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E268">
         <v>1</v>
@@ -9707,7 +9707,7 @@
         <v>1</v>
       </c>
       <c r="D269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E269">
         <v>1</v>
@@ -9742,7 +9742,7 @@
         <v>1</v>
       </c>
       <c r="D270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E270">
         <v>1</v>
@@ -9777,7 +9777,7 @@
         <v>1</v>
       </c>
       <c r="D271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E271">
         <v>1</v>
@@ -9812,7 +9812,7 @@
         <v>1</v>
       </c>
       <c r="D272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E272">
         <v>1</v>
@@ -9847,7 +9847,7 @@
         <v>1</v>
       </c>
       <c r="D273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E273">
         <v>1</v>
@@ -9882,7 +9882,7 @@
         <v>1</v>
       </c>
       <c r="D274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E274">
         <v>1</v>
@@ -9917,7 +9917,7 @@
         <v>1</v>
       </c>
       <c r="D275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E275">
         <v>1</v>
@@ -9952,7 +9952,7 @@
         <v>1</v>
       </c>
       <c r="D276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E276">
         <v>1</v>
@@ -9987,7 +9987,7 @@
         <v>1</v>
       </c>
       <c r="D277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E277">
         <v>1</v>
@@ -10022,7 +10022,7 @@
         <v>1</v>
       </c>
       <c r="D278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E278">
         <v>1</v>
@@ -10057,7 +10057,7 @@
         <v>1</v>
       </c>
       <c r="D279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E279">
         <v>1</v>
@@ -10092,7 +10092,7 @@
         <v>1</v>
       </c>
       <c r="D280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E280">
         <v>1</v>
@@ -10127,7 +10127,7 @@
         <v>1</v>
       </c>
       <c r="D281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E281">
         <v>1</v>
@@ -10162,7 +10162,7 @@
         <v>1</v>
       </c>
       <c r="D282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E282">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         <v>1</v>
       </c>
       <c r="D283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E283">
         <v>1</v>
@@ -10232,7 +10232,7 @@
         <v>1</v>
       </c>
       <c r="D284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E284">
         <v>1</v>
@@ -10267,7 +10267,7 @@
         <v>1</v>
       </c>
       <c r="D285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E285">
         <v>1</v>
@@ -10302,7 +10302,7 @@
         <v>1</v>
       </c>
       <c r="D286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E286">
         <v>1</v>
@@ -10337,7 +10337,7 @@
         <v>1</v>
       </c>
       <c r="D287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E287">
         <v>1</v>
@@ -10372,7 +10372,7 @@
         <v>1</v>
       </c>
       <c r="D288">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E288">
         <v>1</v>
@@ -10407,7 +10407,7 @@
         <v>1</v>
       </c>
       <c r="D289">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E289">
         <v>1</v>
@@ -10442,7 +10442,7 @@
         <v>1</v>
       </c>
       <c r="D290">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E290">
         <v>1</v>
@@ -10477,7 +10477,7 @@
         <v>1</v>
       </c>
       <c r="D291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E291">
         <v>1</v>
@@ -10512,7 +10512,7 @@
         <v>1</v>
       </c>
       <c r="D292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -10547,7 +10547,7 @@
         <v>1</v>
       </c>
       <c r="D293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E293">
         <v>1</v>
@@ -10582,7 +10582,7 @@
         <v>1</v>
       </c>
       <c r="D294">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E294">
         <v>1</v>
@@ -10617,7 +10617,7 @@
         <v>1</v>
       </c>
       <c r="D295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E295">
         <v>1</v>
@@ -10652,7 +10652,7 @@
         <v>1</v>
       </c>
       <c r="D296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E296">
         <v>1</v>
@@ -10687,7 +10687,7 @@
         <v>1</v>
       </c>
       <c r="D297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E297">
         <v>1</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="D298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E298">
         <v>1</v>
@@ -10757,7 +10757,7 @@
         <v>1</v>
       </c>
       <c r="D299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E299">
         <v>1</v>
@@ -10792,7 +10792,7 @@
         <v>1</v>
       </c>
       <c r="D300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E300">
         <v>1</v>
@@ -10827,7 +10827,7 @@
         <v>1</v>
       </c>
       <c r="D301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E301">
         <v>1</v>
@@ -10862,7 +10862,7 @@
         <v>1</v>
       </c>
       <c r="D302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E302">
         <v>1</v>
@@ -10897,7 +10897,7 @@
         <v>1</v>
       </c>
       <c r="D303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E303">
         <v>1</v>
@@ -10932,7 +10932,7 @@
         <v>1</v>
       </c>
       <c r="D304">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E304">
         <v>1</v>
@@ -10967,7 +10967,7 @@
         <v>1</v>
       </c>
       <c r="D305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E305">
         <v>1</v>
@@ -11002,7 +11002,7 @@
         <v>1</v>
       </c>
       <c r="D306">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E306">
         <v>1</v>
@@ -11037,7 +11037,7 @@
         <v>1</v>
       </c>
       <c r="D307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E307">
         <v>1</v>
@@ -11072,7 +11072,7 @@
         <v>1</v>
       </c>
       <c r="D308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E308">
         <v>1</v>
@@ -11107,7 +11107,7 @@
         <v>1</v>
       </c>
       <c r="D309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E309">
         <v>1</v>
@@ -11142,7 +11142,7 @@
         <v>1</v>
       </c>
       <c r="D310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E310">
         <v>1</v>
@@ -11177,7 +11177,7 @@
         <v>1</v>
       </c>
       <c r="D311">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E311">
         <v>1</v>
@@ -11212,7 +11212,7 @@
         <v>1</v>
       </c>
       <c r="D312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E312">
         <v>1</v>
@@ -11247,7 +11247,7 @@
         <v>1</v>
       </c>
       <c r="D313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E313">
         <v>1</v>
@@ -11282,7 +11282,7 @@
         <v>1</v>
       </c>
       <c r="D314">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E314">
         <v>1</v>
@@ -11317,7 +11317,7 @@
         <v>1</v>
       </c>
       <c r="D315">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E315">
         <v>1</v>
@@ -11352,7 +11352,7 @@
         <v>1</v>
       </c>
       <c r="D316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E316">
         <v>1</v>
@@ -11387,7 +11387,7 @@
         <v>1</v>
       </c>
       <c r="D317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E317">
         <v>1</v>
@@ -11422,7 +11422,7 @@
         <v>1</v>
       </c>
       <c r="D318">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E318">
         <v>1</v>
@@ -11457,7 +11457,7 @@
         <v>1</v>
       </c>
       <c r="D319">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E319">
         <v>1</v>
@@ -11492,7 +11492,7 @@
         <v>1</v>
       </c>
       <c r="D320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E320">
         <v>1</v>
@@ -11527,7 +11527,7 @@
         <v>1</v>
       </c>
       <c r="D321">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E321">
         <v>1</v>
@@ -11622,7 +11622,7 @@
         <v>1</v>
       </c>
       <c r="E325">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F325">
         <v>1</v>
@@ -11657,7 +11657,7 @@
         <v>1</v>
       </c>
       <c r="E326">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F326">
         <v>1</v>
@@ -11692,7 +11692,7 @@
         <v>1</v>
       </c>
       <c r="E327">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F327">
         <v>1</v>
@@ -11727,7 +11727,7 @@
         <v>1</v>
       </c>
       <c r="E328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F328">
         <v>1</v>
@@ -11762,7 +11762,7 @@
         <v>1</v>
       </c>
       <c r="E329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F329">
         <v>1</v>
@@ -11797,7 +11797,7 @@
         <v>1</v>
       </c>
       <c r="E330">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F330">
         <v>1</v>
@@ -11832,7 +11832,7 @@
         <v>1</v>
       </c>
       <c r="E331">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F331">
         <v>1</v>
@@ -11867,7 +11867,7 @@
         <v>1</v>
       </c>
       <c r="E332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F332">
         <v>1</v>
@@ -11902,7 +11902,7 @@
         <v>1</v>
       </c>
       <c r="E333">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F333">
         <v>1</v>
@@ -11937,7 +11937,7 @@
         <v>1</v>
       </c>
       <c r="E334">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F334">
         <v>1</v>
@@ -11972,7 +11972,7 @@
         <v>1</v>
       </c>
       <c r="E335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F335">
         <v>1</v>
@@ -12007,7 +12007,7 @@
         <v>1</v>
       </c>
       <c r="E336">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F336">
         <v>1</v>
@@ -12042,7 +12042,7 @@
         <v>1</v>
       </c>
       <c r="E337">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F337">
         <v>1</v>
@@ -12077,7 +12077,7 @@
         <v>1</v>
       </c>
       <c r="E338">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F338">
         <v>1</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="E339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F339">
         <v>1</v>
@@ -12147,7 +12147,7 @@
         <v>1</v>
       </c>
       <c r="E340">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F340">
         <v>1</v>
@@ -12182,7 +12182,7 @@
         <v>1</v>
       </c>
       <c r="E341">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F341">
         <v>1</v>
@@ -12217,7 +12217,7 @@
         <v>1</v>
       </c>
       <c r="E342">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F342">
         <v>1</v>
@@ -12252,7 +12252,7 @@
         <v>1</v>
       </c>
       <c r="E343">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F343">
         <v>1</v>
@@ -12287,7 +12287,7 @@
         <v>1</v>
       </c>
       <c r="E344">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F344">
         <v>1</v>
@@ -12322,7 +12322,7 @@
         <v>1</v>
       </c>
       <c r="E345">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F345">
         <v>1</v>
@@ -12357,7 +12357,7 @@
         <v>1</v>
       </c>
       <c r="E346">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F346">
         <v>1</v>
@@ -12392,7 +12392,7 @@
         <v>1</v>
       </c>
       <c r="E347">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F347">
         <v>1</v>
@@ -12427,7 +12427,7 @@
         <v>1</v>
       </c>
       <c r="E348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F348">
         <v>1</v>
@@ -12462,7 +12462,7 @@
         <v>1</v>
       </c>
       <c r="E349">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F349">
         <v>1</v>
@@ -12497,7 +12497,7 @@
         <v>1</v>
       </c>
       <c r="E350">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F350">
         <v>1</v>
@@ -12532,7 +12532,7 @@
         <v>1</v>
       </c>
       <c r="E351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F351">
         <v>1</v>
@@ -12567,7 +12567,7 @@
         <v>1</v>
       </c>
       <c r="E352">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F352">
         <v>1</v>
@@ -12602,7 +12602,7 @@
         <v>1</v>
       </c>
       <c r="E353">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F353">
         <v>1</v>
@@ -12637,7 +12637,7 @@
         <v>1</v>
       </c>
       <c r="E354">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F354">
         <v>1</v>
@@ -12672,7 +12672,7 @@
         <v>1</v>
       </c>
       <c r="E355">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F355">
         <v>1</v>
@@ -12707,7 +12707,7 @@
         <v>1</v>
       </c>
       <c r="E356">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F356">
         <v>1</v>
@@ -12742,7 +12742,7 @@
         <v>1</v>
       </c>
       <c r="E357">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F357">
         <v>1</v>
@@ -12777,7 +12777,7 @@
         <v>1</v>
       </c>
       <c r="E358">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F358">
         <v>1</v>
@@ -12812,7 +12812,7 @@
         <v>1</v>
       </c>
       <c r="E359">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F359">
         <v>1</v>
@@ -12847,7 +12847,7 @@
         <v>1</v>
       </c>
       <c r="E360">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F360">
         <v>1</v>
@@ -12882,7 +12882,7 @@
         <v>1</v>
       </c>
       <c r="E361">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F361">
         <v>1</v>
@@ -12917,7 +12917,7 @@
         <v>1</v>
       </c>
       <c r="E362">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F362">
         <v>1</v>
@@ -12952,7 +12952,7 @@
         <v>1</v>
       </c>
       <c r="E363">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F363">
         <v>1</v>
@@ -12987,7 +12987,7 @@
         <v>1</v>
       </c>
       <c r="E364">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F364">
         <v>1</v>
@@ -13022,7 +13022,7 @@
         <v>1</v>
       </c>
       <c r="E365">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F365">
         <v>1</v>
@@ -13057,7 +13057,7 @@
         <v>1</v>
       </c>
       <c r="E366">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F366">
         <v>1</v>
@@ -13092,7 +13092,7 @@
         <v>1</v>
       </c>
       <c r="E367">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F367">
         <v>1</v>
@@ -13127,7 +13127,7 @@
         <v>1</v>
       </c>
       <c r="E368">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F368">
         <v>1</v>
@@ -13162,7 +13162,7 @@
         <v>1</v>
       </c>
       <c r="E369">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F369">
         <v>1</v>
@@ -13197,7 +13197,7 @@
         <v>1</v>
       </c>
       <c r="E370">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F370">
         <v>1</v>
@@ -13232,7 +13232,7 @@
         <v>1</v>
       </c>
       <c r="E371">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F371">
         <v>1</v>
@@ -13267,7 +13267,7 @@
         <v>1</v>
       </c>
       <c r="E372">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F372">
         <v>1</v>
@@ -13302,7 +13302,7 @@
         <v>1</v>
       </c>
       <c r="E373">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F373">
         <v>1</v>
@@ -13337,7 +13337,7 @@
         <v>1</v>
       </c>
       <c r="E374">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F374">
         <v>1</v>
@@ -13372,7 +13372,7 @@
         <v>1</v>
       </c>
       <c r="E375">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F375">
         <v>1</v>
@@ -13407,7 +13407,7 @@
         <v>1</v>
       </c>
       <c r="E376">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F376">
         <v>1</v>
@@ -13442,7 +13442,7 @@
         <v>1</v>
       </c>
       <c r="E377">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F377">
         <v>1</v>
@@ -13477,7 +13477,7 @@
         <v>1</v>
       </c>
       <c r="E378">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F378">
         <v>1</v>
@@ -13512,7 +13512,7 @@
         <v>1</v>
       </c>
       <c r="E379">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F379">
         <v>1</v>
@@ -13547,7 +13547,7 @@
         <v>1</v>
       </c>
       <c r="E380">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F380">
         <v>1</v>
@@ -13582,7 +13582,7 @@
         <v>1</v>
       </c>
       <c r="E381">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F381">
         <v>1</v>
@@ -13617,7 +13617,7 @@
         <v>1</v>
       </c>
       <c r="E382">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F382">
         <v>1</v>
@@ -13652,7 +13652,7 @@
         <v>1</v>
       </c>
       <c r="E383">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F383">
         <v>1</v>
@@ -13687,7 +13687,7 @@
         <v>1</v>
       </c>
       <c r="E384">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F384">
         <v>1</v>
@@ -13722,7 +13722,7 @@
         <v>1</v>
       </c>
       <c r="E385">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F385">
         <v>1</v>
@@ -13757,7 +13757,7 @@
         <v>1</v>
       </c>
       <c r="E386">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F386">
         <v>1</v>
@@ -13792,7 +13792,7 @@
         <v>1</v>
       </c>
       <c r="E387">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F387">
         <v>1</v>
@@ -13827,7 +13827,7 @@
         <v>1</v>
       </c>
       <c r="E388">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F388">
         <v>1</v>
@@ -13862,7 +13862,7 @@
         <v>1</v>
       </c>
       <c r="E389">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F389">
         <v>1</v>
@@ -13897,7 +13897,7 @@
         <v>1</v>
       </c>
       <c r="E390">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F390">
         <v>1</v>
@@ -13932,7 +13932,7 @@
         <v>1</v>
       </c>
       <c r="E391">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F391">
         <v>1</v>
@@ -13967,7 +13967,7 @@
         <v>1</v>
       </c>
       <c r="E392">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F392">
         <v>1</v>
@@ -14002,7 +14002,7 @@
         <v>1</v>
       </c>
       <c r="E393">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F393">
         <v>1</v>
@@ -14037,7 +14037,7 @@
         <v>1</v>
       </c>
       <c r="E394">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F394">
         <v>1</v>
@@ -14072,7 +14072,7 @@
         <v>1</v>
       </c>
       <c r="E395">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F395">
         <v>1</v>
@@ -14107,7 +14107,7 @@
         <v>1</v>
       </c>
       <c r="E396">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F396">
         <v>1</v>
@@ -14142,7 +14142,7 @@
         <v>1</v>
       </c>
       <c r="E397">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F397">
         <v>1</v>
@@ -14177,7 +14177,7 @@
         <v>1</v>
       </c>
       <c r="E398">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F398">
         <v>1</v>
@@ -14212,7 +14212,7 @@
         <v>1</v>
       </c>
       <c r="E399">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F399">
         <v>1</v>
@@ -14247,7 +14247,7 @@
         <v>1</v>
       </c>
       <c r="E400">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F400">
         <v>1</v>
@@ -14282,7 +14282,7 @@
         <v>1</v>
       </c>
       <c r="E401">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F401">
         <v>1</v>
@@ -14317,7 +14317,7 @@
         <v>1</v>
       </c>
       <c r="E402">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F402">
         <v>1</v>
@@ -14352,7 +14352,7 @@
         <v>1</v>
       </c>
       <c r="E403">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F403">
         <v>1</v>
@@ -14387,7 +14387,7 @@
         <v>1</v>
       </c>
       <c r="E404">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F404">
         <v>1</v>
@@ -14422,7 +14422,7 @@
         <v>1</v>
       </c>
       <c r="E405">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F405">
         <v>1</v>
@@ -14457,7 +14457,7 @@
         <v>1</v>
       </c>
       <c r="E406">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F406">
         <v>1</v>
@@ -14492,7 +14492,7 @@
         <v>1</v>
       </c>
       <c r="E407">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F407">
         <v>1</v>
@@ -14527,7 +14527,7 @@
         <v>1</v>
       </c>
       <c r="E408">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F408">
         <v>1</v>
@@ -14562,7 +14562,7 @@
         <v>1</v>
       </c>
       <c r="E409">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F409">
         <v>1</v>
@@ -14597,7 +14597,7 @@
         <v>1</v>
       </c>
       <c r="E410">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F410">
         <v>1</v>
@@ -14632,7 +14632,7 @@
         <v>1</v>
       </c>
       <c r="E411">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F411">
         <v>1</v>
@@ -14667,7 +14667,7 @@
         <v>1</v>
       </c>
       <c r="E412">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F412">
         <v>1</v>
@@ -14702,7 +14702,7 @@
         <v>1</v>
       </c>
       <c r="E413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F413">
         <v>1</v>
@@ -14737,7 +14737,7 @@
         <v>1</v>
       </c>
       <c r="E414">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F414">
         <v>1</v>
@@ -14772,7 +14772,7 @@
         <v>1</v>
       </c>
       <c r="E415">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F415">
         <v>1</v>
@@ -14807,7 +14807,7 @@
         <v>1</v>
       </c>
       <c r="E416">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F416">
         <v>1</v>
@@ -14842,7 +14842,7 @@
         <v>1</v>
       </c>
       <c r="E417">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F417">
         <v>1</v>
@@ -14877,7 +14877,7 @@
         <v>1</v>
       </c>
       <c r="E418">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F418">
         <v>1</v>
@@ -14912,7 +14912,7 @@
         <v>1</v>
       </c>
       <c r="E419">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F419">
         <v>1</v>
@@ -14947,7 +14947,7 @@
         <v>1</v>
       </c>
       <c r="E420">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F420">
         <v>1</v>
@@ -14982,7 +14982,7 @@
         <v>1</v>
       </c>
       <c r="E421">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F421">
         <v>1</v>
@@ -15017,7 +15017,7 @@
         <v>1</v>
       </c>
       <c r="E422">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F422">
         <v>1</v>
@@ -15052,7 +15052,7 @@
         <v>1</v>
       </c>
       <c r="E423">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F423">
         <v>1</v>
@@ -15087,7 +15087,7 @@
         <v>1</v>
       </c>
       <c r="E424">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F424">
         <v>1</v>
@@ -15122,7 +15122,7 @@
         <v>1</v>
       </c>
       <c r="E425">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F425">
         <v>1</v>
@@ -15157,7 +15157,7 @@
         <v>1</v>
       </c>
       <c r="E426">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F426">
         <v>1</v>
@@ -15192,7 +15192,7 @@
         <v>1</v>
       </c>
       <c r="E427">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F427">
         <v>1</v>
@@ -15227,7 +15227,7 @@
         <v>1</v>
       </c>
       <c r="E428">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F428">
         <v>1</v>
@@ -15322,7 +15322,7 @@
         <v>1</v>
       </c>
       <c r="F432">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G432">
         <v>1</v>
@@ -15357,7 +15357,7 @@
         <v>1</v>
       </c>
       <c r="F433">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G433">
         <v>1</v>
@@ -15392,7 +15392,7 @@
         <v>1</v>
       </c>
       <c r="F434">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G434">
         <v>1</v>
@@ -15427,7 +15427,7 @@
         <v>1</v>
       </c>
       <c r="F435">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G435">
         <v>1</v>
@@ -15462,7 +15462,7 @@
         <v>1</v>
       </c>
       <c r="F436">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G436">
         <v>1</v>
@@ -15497,7 +15497,7 @@
         <v>1</v>
       </c>
       <c r="F437">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G437">
         <v>1</v>
@@ -15532,7 +15532,7 @@
         <v>1</v>
       </c>
       <c r="F438">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G438">
         <v>1</v>
@@ -15567,7 +15567,7 @@
         <v>1</v>
       </c>
       <c r="F439">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G439">
         <v>1</v>
@@ -15602,7 +15602,7 @@
         <v>1</v>
       </c>
       <c r="F440">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G440">
         <v>1</v>
@@ -15637,7 +15637,7 @@
         <v>1</v>
       </c>
       <c r="F441">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G441">
         <v>1</v>
@@ -15672,7 +15672,7 @@
         <v>1</v>
       </c>
       <c r="F442">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G442">
         <v>1</v>
@@ -15707,7 +15707,7 @@
         <v>1</v>
       </c>
       <c r="F443">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G443">
         <v>1</v>
@@ -15742,7 +15742,7 @@
         <v>1</v>
       </c>
       <c r="F444">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G444">
         <v>1</v>
@@ -15777,7 +15777,7 @@
         <v>1</v>
       </c>
       <c r="F445">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G445">
         <v>1</v>
@@ -15812,7 +15812,7 @@
         <v>1</v>
       </c>
       <c r="F446">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G446">
         <v>1</v>
@@ -15847,7 +15847,7 @@
         <v>1</v>
       </c>
       <c r="F447">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G447">
         <v>1</v>
@@ -15882,7 +15882,7 @@
         <v>1</v>
       </c>
       <c r="F448">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G448">
         <v>1</v>
@@ -15917,7 +15917,7 @@
         <v>1</v>
       </c>
       <c r="F449">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G449">
         <v>1</v>
@@ -15952,7 +15952,7 @@
         <v>1</v>
       </c>
       <c r="F450">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G450">
         <v>1</v>
@@ -15987,7 +15987,7 @@
         <v>1</v>
       </c>
       <c r="F451">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G451">
         <v>1</v>
@@ -16022,7 +16022,7 @@
         <v>1</v>
       </c>
       <c r="F452">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G452">
         <v>1</v>
@@ -16057,7 +16057,7 @@
         <v>1</v>
       </c>
       <c r="F453">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G453">
         <v>1</v>
@@ -16092,7 +16092,7 @@
         <v>1</v>
       </c>
       <c r="F454">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G454">
         <v>1</v>
@@ -16127,7 +16127,7 @@
         <v>1</v>
       </c>
       <c r="F455">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G455">
         <v>1</v>
@@ -16162,7 +16162,7 @@
         <v>1</v>
       </c>
       <c r="F456">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G456">
         <v>1</v>
@@ -16197,7 +16197,7 @@
         <v>1</v>
       </c>
       <c r="F457">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G457">
         <v>1</v>
@@ -16232,7 +16232,7 @@
         <v>1</v>
       </c>
       <c r="F458">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G458">
         <v>1</v>
@@ -16267,7 +16267,7 @@
         <v>1</v>
       </c>
       <c r="F459">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G459">
         <v>1</v>
@@ -16302,7 +16302,7 @@
         <v>1</v>
       </c>
       <c r="F460">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G460">
         <v>1</v>
@@ -16337,7 +16337,7 @@
         <v>1</v>
       </c>
       <c r="F461">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G461">
         <v>1</v>
@@ -16372,7 +16372,7 @@
         <v>1</v>
       </c>
       <c r="F462">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G462">
         <v>1</v>
@@ -16407,7 +16407,7 @@
         <v>1</v>
       </c>
       <c r="F463">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G463">
         <v>1</v>
@@ -16442,7 +16442,7 @@
         <v>1</v>
       </c>
       <c r="F464">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G464">
         <v>1</v>
@@ -16477,7 +16477,7 @@
         <v>1</v>
       </c>
       <c r="F465">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G465">
         <v>1</v>
@@ -16512,7 +16512,7 @@
         <v>1</v>
       </c>
       <c r="F466">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G466">
         <v>1</v>
@@ -16547,7 +16547,7 @@
         <v>1</v>
       </c>
       <c r="F467">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G467">
         <v>1</v>
@@ -16582,7 +16582,7 @@
         <v>1</v>
       </c>
       <c r="F468">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G468">
         <v>1</v>
@@ -16617,7 +16617,7 @@
         <v>1</v>
       </c>
       <c r="F469">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G469">
         <v>1</v>
@@ -16652,7 +16652,7 @@
         <v>1</v>
       </c>
       <c r="F470">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G470">
         <v>1</v>
@@ -16687,7 +16687,7 @@
         <v>1</v>
       </c>
       <c r="F471">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G471">
         <v>1</v>
@@ -16722,7 +16722,7 @@
         <v>1</v>
       </c>
       <c r="F472">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G472">
         <v>1</v>
@@ -16757,7 +16757,7 @@
         <v>1</v>
       </c>
       <c r="F473">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G473">
         <v>1</v>
@@ -16792,7 +16792,7 @@
         <v>1</v>
       </c>
       <c r="F474">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G474">
         <v>1</v>
@@ -16827,7 +16827,7 @@
         <v>1</v>
       </c>
       <c r="F475">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G475">
         <v>1</v>
@@ -16862,7 +16862,7 @@
         <v>1</v>
       </c>
       <c r="F476">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G476">
         <v>1</v>
@@ -16897,7 +16897,7 @@
         <v>1</v>
       </c>
       <c r="F477">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G477">
         <v>1</v>
@@ -16932,7 +16932,7 @@
         <v>1</v>
       </c>
       <c r="F478">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G478">
         <v>1</v>
@@ -16967,7 +16967,7 @@
         <v>1</v>
       </c>
       <c r="F479">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G479">
         <v>1</v>
@@ -17002,7 +17002,7 @@
         <v>1</v>
       </c>
       <c r="F480">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G480">
         <v>1</v>
@@ -17037,7 +17037,7 @@
         <v>1</v>
       </c>
       <c r="F481">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G481">
         <v>1</v>
@@ -17072,7 +17072,7 @@
         <v>1</v>
       </c>
       <c r="F482">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G482">
         <v>1</v>
@@ -17107,7 +17107,7 @@
         <v>1</v>
       </c>
       <c r="F483">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G483">
         <v>1</v>
@@ -17142,7 +17142,7 @@
         <v>1</v>
       </c>
       <c r="F484">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G484">
         <v>1</v>
@@ -17177,7 +17177,7 @@
         <v>1</v>
       </c>
       <c r="F485">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G485">
         <v>1</v>
@@ -17212,7 +17212,7 @@
         <v>1</v>
       </c>
       <c r="F486">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G486">
         <v>1</v>
@@ -17247,7 +17247,7 @@
         <v>1</v>
       </c>
       <c r="F487">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G487">
         <v>1</v>
@@ -17282,7 +17282,7 @@
         <v>1</v>
       </c>
       <c r="F488">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G488">
         <v>1</v>
@@ -17317,7 +17317,7 @@
         <v>1</v>
       </c>
       <c r="F489">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G489">
         <v>1</v>
@@ -17352,7 +17352,7 @@
         <v>1</v>
       </c>
       <c r="F490">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G490">
         <v>1</v>
@@ -17387,7 +17387,7 @@
         <v>1</v>
       </c>
       <c r="F491">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G491">
         <v>1</v>
@@ -17422,7 +17422,7 @@
         <v>1</v>
       </c>
       <c r="F492">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G492">
         <v>1</v>
@@ -17457,7 +17457,7 @@
         <v>1</v>
       </c>
       <c r="F493">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G493">
         <v>1</v>
@@ -17492,7 +17492,7 @@
         <v>1</v>
       </c>
       <c r="F494">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G494">
         <v>1</v>
@@ -17527,7 +17527,7 @@
         <v>1</v>
       </c>
       <c r="F495">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G495">
         <v>1</v>
@@ -17562,7 +17562,7 @@
         <v>1</v>
       </c>
       <c r="F496">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G496">
         <v>1</v>
@@ -17597,7 +17597,7 @@
         <v>1</v>
       </c>
       <c r="F497">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G497">
         <v>1</v>
@@ -17632,7 +17632,7 @@
         <v>1</v>
       </c>
       <c r="F498">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G498">
         <v>1</v>
@@ -17667,7 +17667,7 @@
         <v>1</v>
       </c>
       <c r="F499">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G499">
         <v>1</v>
@@ -17702,7 +17702,7 @@
         <v>1</v>
       </c>
       <c r="F500">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G500">
         <v>1</v>
@@ -17737,7 +17737,7 @@
         <v>1</v>
       </c>
       <c r="F501">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G501">
         <v>1</v>
@@ -17772,7 +17772,7 @@
         <v>1</v>
       </c>
       <c r="F502">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G502">
         <v>1</v>
@@ -17807,7 +17807,7 @@
         <v>1</v>
       </c>
       <c r="F503">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G503">
         <v>1</v>
@@ -17842,7 +17842,7 @@
         <v>1</v>
       </c>
       <c r="F504">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G504">
         <v>1</v>
@@ -17877,7 +17877,7 @@
         <v>1</v>
       </c>
       <c r="F505">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G505">
         <v>1</v>
@@ -17912,7 +17912,7 @@
         <v>1</v>
       </c>
       <c r="F506">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G506">
         <v>1</v>
@@ -17947,7 +17947,7 @@
         <v>1</v>
       </c>
       <c r="F507">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G507">
         <v>1</v>
@@ -17982,7 +17982,7 @@
         <v>1</v>
       </c>
       <c r="F508">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G508">
         <v>1</v>
@@ -18017,7 +18017,7 @@
         <v>1</v>
       </c>
       <c r="F509">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G509">
         <v>1</v>
@@ -18052,7 +18052,7 @@
         <v>1</v>
       </c>
       <c r="F510">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G510">
         <v>1</v>
@@ -18087,7 +18087,7 @@
         <v>1</v>
       </c>
       <c r="F511">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G511">
         <v>1</v>
@@ -18122,7 +18122,7 @@
         <v>1</v>
       </c>
       <c r="F512">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G512">
         <v>1</v>
@@ -18157,7 +18157,7 @@
         <v>1</v>
       </c>
       <c r="F513">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G513">
         <v>1</v>
@@ -18192,7 +18192,7 @@
         <v>1</v>
       </c>
       <c r="F514">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G514">
         <v>1</v>
@@ -18227,7 +18227,7 @@
         <v>1</v>
       </c>
       <c r="F515">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G515">
         <v>1</v>
@@ -18262,7 +18262,7 @@
         <v>1</v>
       </c>
       <c r="F516">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G516">
         <v>1</v>
@@ -18297,7 +18297,7 @@
         <v>1</v>
       </c>
       <c r="F517">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G517">
         <v>1</v>
@@ -18332,7 +18332,7 @@
         <v>1</v>
       </c>
       <c r="F518">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G518">
         <v>1</v>
@@ -18367,7 +18367,7 @@
         <v>1</v>
       </c>
       <c r="F519">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G519">
         <v>1</v>
@@ -18402,7 +18402,7 @@
         <v>1</v>
       </c>
       <c r="F520">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G520">
         <v>1</v>
@@ -18437,7 +18437,7 @@
         <v>1</v>
       </c>
       <c r="F521">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G521">
         <v>1</v>
@@ -18472,7 +18472,7 @@
         <v>1</v>
       </c>
       <c r="F522">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G522">
         <v>1</v>
@@ -18507,7 +18507,7 @@
         <v>1</v>
       </c>
       <c r="F523">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G523">
         <v>1</v>
@@ -18542,7 +18542,7 @@
         <v>1</v>
       </c>
       <c r="F524">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G524">
         <v>1</v>
@@ -18577,7 +18577,7 @@
         <v>1</v>
       </c>
       <c r="F525">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G525">
         <v>1</v>
@@ -18612,7 +18612,7 @@
         <v>1</v>
       </c>
       <c r="F526">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G526">
         <v>1</v>
@@ -18647,7 +18647,7 @@
         <v>1</v>
       </c>
       <c r="F527">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G527">
         <v>1</v>
@@ -18682,7 +18682,7 @@
         <v>1</v>
       </c>
       <c r="F528">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G528">
         <v>1</v>
@@ -18717,7 +18717,7 @@
         <v>1</v>
       </c>
       <c r="F529">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G529">
         <v>1</v>
@@ -18752,7 +18752,7 @@
         <v>1</v>
       </c>
       <c r="F530">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G530">
         <v>1</v>
@@ -18787,7 +18787,7 @@
         <v>1</v>
       </c>
       <c r="F531">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G531">
         <v>1</v>
@@ -18822,7 +18822,7 @@
         <v>1</v>
       </c>
       <c r="F532">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G532">
         <v>1</v>
@@ -18857,7 +18857,7 @@
         <v>1</v>
       </c>
       <c r="F533">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G533">
         <v>1</v>
@@ -18892,7 +18892,7 @@
         <v>1</v>
       </c>
       <c r="F534">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G534">
         <v>1</v>
@@ -18927,7 +18927,7 @@
         <v>1</v>
       </c>
       <c r="F535">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G535">
         <v>1</v>
@@ -19022,7 +19022,7 @@
         <v>1</v>
       </c>
       <c r="G539">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H539">
         <v>1</v>
@@ -19057,7 +19057,7 @@
         <v>1</v>
       </c>
       <c r="G540">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H540">
         <v>1</v>
@@ -19092,7 +19092,7 @@
         <v>1</v>
       </c>
       <c r="G541">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H541">
         <v>1</v>
@@ -19127,7 +19127,7 @@
         <v>1</v>
       </c>
       <c r="G542">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H542">
         <v>1</v>
@@ -19162,7 +19162,7 @@
         <v>1</v>
       </c>
       <c r="G543">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H543">
         <v>1</v>
@@ -19197,7 +19197,7 @@
         <v>1</v>
       </c>
       <c r="G544">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H544">
         <v>1</v>
@@ -19232,7 +19232,7 @@
         <v>1</v>
       </c>
       <c r="G545">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H545">
         <v>1</v>
@@ -19267,7 +19267,7 @@
         <v>1</v>
       </c>
       <c r="G546">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H546">
         <v>1</v>
@@ -19302,7 +19302,7 @@
         <v>1</v>
       </c>
       <c r="G547">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H547">
         <v>1</v>
@@ -19337,7 +19337,7 @@
         <v>1</v>
       </c>
       <c r="G548">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H548">
         <v>1</v>
@@ -19372,7 +19372,7 @@
         <v>1</v>
       </c>
       <c r="G549">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H549">
         <v>1</v>
@@ -19407,7 +19407,7 @@
         <v>1</v>
       </c>
       <c r="G550">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H550">
         <v>1</v>
@@ -19442,7 +19442,7 @@
         <v>1</v>
       </c>
       <c r="G551">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H551">
         <v>1</v>
@@ -19477,7 +19477,7 @@
         <v>1</v>
       </c>
       <c r="G552">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H552">
         <v>1</v>
@@ -19512,7 +19512,7 @@
         <v>1</v>
       </c>
       <c r="G553">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H553">
         <v>1</v>
@@ -19547,7 +19547,7 @@
         <v>1</v>
       </c>
       <c r="G554">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H554">
         <v>1</v>
@@ -19582,7 +19582,7 @@
         <v>1</v>
       </c>
       <c r="G555">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H555">
         <v>1</v>
@@ -19617,7 +19617,7 @@
         <v>1</v>
       </c>
       <c r="G556">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H556">
         <v>1</v>
@@ -19652,7 +19652,7 @@
         <v>1</v>
       </c>
       <c r="G557">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H557">
         <v>1</v>
@@ -19687,7 +19687,7 @@
         <v>1</v>
       </c>
       <c r="G558">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H558">
         <v>1</v>
@@ -19722,7 +19722,7 @@
         <v>1</v>
       </c>
       <c r="G559">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H559">
         <v>1</v>
@@ -19757,7 +19757,7 @@
         <v>1</v>
       </c>
       <c r="G560">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H560">
         <v>1</v>
@@ -19792,7 +19792,7 @@
         <v>1</v>
       </c>
       <c r="G561">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H561">
         <v>1</v>
@@ -19827,7 +19827,7 @@
         <v>1</v>
       </c>
       <c r="G562">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H562">
         <v>1</v>
@@ -19862,7 +19862,7 @@
         <v>1</v>
       </c>
       <c r="G563">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H563">
         <v>1</v>
@@ -19897,7 +19897,7 @@
         <v>1</v>
       </c>
       <c r="G564">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H564">
         <v>1</v>
@@ -19932,7 +19932,7 @@
         <v>1</v>
       </c>
       <c r="G565">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H565">
         <v>1</v>
@@ -19967,7 +19967,7 @@
         <v>1</v>
       </c>
       <c r="G566">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H566">
         <v>1</v>
@@ -20002,7 +20002,7 @@
         <v>1</v>
       </c>
       <c r="G567">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H567">
         <v>1</v>
@@ -20037,7 +20037,7 @@
         <v>1</v>
       </c>
       <c r="G568">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H568">
         <v>1</v>
@@ -20072,7 +20072,7 @@
         <v>1</v>
       </c>
       <c r="G569">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H569">
         <v>1</v>
@@ -20107,7 +20107,7 @@
         <v>1</v>
       </c>
       <c r="G570">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H570">
         <v>1</v>
@@ -20142,7 +20142,7 @@
         <v>1</v>
       </c>
       <c r="G571">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H571">
         <v>1</v>
@@ -20177,7 +20177,7 @@
         <v>1</v>
       </c>
       <c r="G572">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H572">
         <v>1</v>
@@ -20212,7 +20212,7 @@
         <v>1</v>
       </c>
       <c r="G573">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H573">
         <v>1</v>
@@ -20247,7 +20247,7 @@
         <v>1</v>
       </c>
       <c r="G574">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H574">
         <v>1</v>
@@ -20282,7 +20282,7 @@
         <v>1</v>
       </c>
       <c r="G575">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H575">
         <v>1</v>
@@ -20317,7 +20317,7 @@
         <v>1</v>
       </c>
       <c r="G576">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H576">
         <v>1</v>
@@ -20352,7 +20352,7 @@
         <v>1</v>
       </c>
       <c r="G577">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H577">
         <v>1</v>
@@ -20387,7 +20387,7 @@
         <v>1</v>
       </c>
       <c r="G578">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H578">
         <v>1</v>
@@ -20422,7 +20422,7 @@
         <v>1</v>
       </c>
       <c r="G579">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H579">
         <v>1</v>
@@ -20457,7 +20457,7 @@
         <v>1</v>
       </c>
       <c r="G580">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H580">
         <v>1</v>
@@ -20492,7 +20492,7 @@
         <v>1</v>
       </c>
       <c r="G581">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H581">
         <v>1</v>
@@ -20527,7 +20527,7 @@
         <v>1</v>
       </c>
       <c r="G582">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H582">
         <v>1</v>
@@ -20562,7 +20562,7 @@
         <v>1</v>
       </c>
       <c r="G583">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H583">
         <v>1</v>
@@ -20597,7 +20597,7 @@
         <v>1</v>
       </c>
       <c r="G584">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H584">
         <v>1</v>
@@ -20632,7 +20632,7 @@
         <v>1</v>
       </c>
       <c r="G585">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H585">
         <v>1</v>
@@ -20667,7 +20667,7 @@
         <v>1</v>
       </c>
       <c r="G586">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H586">
         <v>1</v>
@@ -20702,7 +20702,7 @@
         <v>1</v>
       </c>
       <c r="G587">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H587">
         <v>1</v>
@@ -20737,7 +20737,7 @@
         <v>1</v>
       </c>
       <c r="G588">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H588">
         <v>1</v>
@@ -20772,7 +20772,7 @@
         <v>1</v>
       </c>
       <c r="G589">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H589">
         <v>1</v>
@@ -20807,7 +20807,7 @@
         <v>1</v>
       </c>
       <c r="G590">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H590">
         <v>1</v>
@@ -20842,7 +20842,7 @@
         <v>1</v>
       </c>
       <c r="G591">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H591">
         <v>1</v>
@@ -20877,7 +20877,7 @@
         <v>1</v>
       </c>
       <c r="G592">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H592">
         <v>1</v>
@@ -20912,7 +20912,7 @@
         <v>1</v>
       </c>
       <c r="G593">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H593">
         <v>1</v>
@@ -20947,7 +20947,7 @@
         <v>1</v>
       </c>
       <c r="G594">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H594">
         <v>1</v>
@@ -20982,7 +20982,7 @@
         <v>1</v>
       </c>
       <c r="G595">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H595">
         <v>1</v>
@@ -21017,7 +21017,7 @@
         <v>1</v>
       </c>
       <c r="G596">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H596">
         <v>1</v>
@@ -21052,7 +21052,7 @@
         <v>1</v>
       </c>
       <c r="G597">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H597">
         <v>1</v>
@@ -21087,7 +21087,7 @@
         <v>1</v>
       </c>
       <c r="G598">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H598">
         <v>1</v>
@@ -21122,7 +21122,7 @@
         <v>1</v>
       </c>
       <c r="G599">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H599">
         <v>1</v>
@@ -21157,7 +21157,7 @@
         <v>1</v>
       </c>
       <c r="G600">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H600">
         <v>1</v>
@@ -21192,7 +21192,7 @@
         <v>1</v>
       </c>
       <c r="G601">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H601">
         <v>1</v>
@@ -21227,7 +21227,7 @@
         <v>1</v>
       </c>
       <c r="G602">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H602">
         <v>1</v>
@@ -21262,7 +21262,7 @@
         <v>1</v>
       </c>
       <c r="G603">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H603">
         <v>1</v>
@@ -21297,7 +21297,7 @@
         <v>1</v>
       </c>
       <c r="G604">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H604">
         <v>1</v>
@@ -21332,7 +21332,7 @@
         <v>1</v>
       </c>
       <c r="G605">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H605">
         <v>1</v>
@@ -21367,7 +21367,7 @@
         <v>1</v>
       </c>
       <c r="G606">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H606">
         <v>1</v>
@@ -21402,7 +21402,7 @@
         <v>1</v>
       </c>
       <c r="G607">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H607">
         <v>1</v>
@@ -21437,7 +21437,7 @@
         <v>1</v>
       </c>
       <c r="G608">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H608">
         <v>1</v>
@@ -21472,7 +21472,7 @@
         <v>1</v>
       </c>
       <c r="G609">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H609">
         <v>1</v>
@@ -21507,7 +21507,7 @@
         <v>1</v>
       </c>
       <c r="G610">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H610">
         <v>1</v>
@@ -21542,7 +21542,7 @@
         <v>1</v>
       </c>
       <c r="G611">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H611">
         <v>1</v>
@@ -21577,7 +21577,7 @@
         <v>1</v>
       </c>
       <c r="G612">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H612">
         <v>1</v>
@@ -21612,7 +21612,7 @@
         <v>1</v>
       </c>
       <c r="G613">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H613">
         <v>1</v>
@@ -21647,7 +21647,7 @@
         <v>1</v>
       </c>
       <c r="G614">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H614">
         <v>1</v>
@@ -21682,7 +21682,7 @@
         <v>1</v>
       </c>
       <c r="G615">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H615">
         <v>1</v>
@@ -21717,7 +21717,7 @@
         <v>1</v>
       </c>
       <c r="G616">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H616">
         <v>1</v>
@@ -21752,7 +21752,7 @@
         <v>1</v>
       </c>
       <c r="G617">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H617">
         <v>1</v>
@@ -21787,7 +21787,7 @@
         <v>1</v>
       </c>
       <c r="G618">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H618">
         <v>1</v>
@@ -21822,7 +21822,7 @@
         <v>1</v>
       </c>
       <c r="G619">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H619">
         <v>1</v>
@@ -21857,7 +21857,7 @@
         <v>1</v>
       </c>
       <c r="G620">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H620">
         <v>1</v>
@@ -21892,7 +21892,7 @@
         <v>1</v>
       </c>
       <c r="G621">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H621">
         <v>1</v>
@@ -21927,7 +21927,7 @@
         <v>1</v>
       </c>
       <c r="G622">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H622">
         <v>1</v>
@@ -21962,7 +21962,7 @@
         <v>1</v>
       </c>
       <c r="G623">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H623">
         <v>1</v>
@@ -21997,7 +21997,7 @@
         <v>1</v>
       </c>
       <c r="G624">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H624">
         <v>1</v>
@@ -22032,7 +22032,7 @@
         <v>1</v>
       </c>
       <c r="G625">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H625">
         <v>1</v>
@@ -22067,7 +22067,7 @@
         <v>1</v>
       </c>
       <c r="G626">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H626">
         <v>1</v>
@@ -22102,7 +22102,7 @@
         <v>1</v>
       </c>
       <c r="G627">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H627">
         <v>1</v>
@@ -22137,7 +22137,7 @@
         <v>1</v>
       </c>
       <c r="G628">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H628">
         <v>1</v>
@@ -22172,7 +22172,7 @@
         <v>1</v>
       </c>
       <c r="G629">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H629">
         <v>1</v>
@@ -22207,7 +22207,7 @@
         <v>1</v>
       </c>
       <c r="G630">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H630">
         <v>1</v>
@@ -22242,7 +22242,7 @@
         <v>1</v>
       </c>
       <c r="G631">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H631">
         <v>1</v>
@@ -22277,7 +22277,7 @@
         <v>1</v>
       </c>
       <c r="G632">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H632">
         <v>1</v>
@@ -22312,7 +22312,7 @@
         <v>1</v>
       </c>
       <c r="G633">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H633">
         <v>1</v>
@@ -22347,7 +22347,7 @@
         <v>1</v>
       </c>
       <c r="G634">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H634">
         <v>1</v>
@@ -22382,7 +22382,7 @@
         <v>1</v>
       </c>
       <c r="G635">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H635">
         <v>1</v>
@@ -22417,7 +22417,7 @@
         <v>1</v>
       </c>
       <c r="G636">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H636">
         <v>1</v>
@@ -22452,7 +22452,7 @@
         <v>1</v>
       </c>
       <c r="G637">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H637">
         <v>1</v>
@@ -22487,7 +22487,7 @@
         <v>1</v>
       </c>
       <c r="G638">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H638">
         <v>1</v>
@@ -22522,7 +22522,7 @@
         <v>1</v>
       </c>
       <c r="G639">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H639">
         <v>1</v>
@@ -22557,7 +22557,7 @@
         <v>1</v>
       </c>
       <c r="G640">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H640">
         <v>1</v>
@@ -22592,7 +22592,7 @@
         <v>1</v>
       </c>
       <c r="G641">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H641">
         <v>1</v>
@@ -22627,7 +22627,7 @@
         <v>1</v>
       </c>
       <c r="G642">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H642">
         <v>1</v>
@@ -22722,7 +22722,7 @@
         <v>1</v>
       </c>
       <c r="H646">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I646">
         <v>1</v>
@@ -22757,7 +22757,7 @@
         <v>1</v>
       </c>
       <c r="H647">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I647">
         <v>1</v>
@@ -22792,7 +22792,7 @@
         <v>1</v>
       </c>
       <c r="H648">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I648">
         <v>1</v>
@@ -22827,7 +22827,7 @@
         <v>1</v>
       </c>
       <c r="H649">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I649">
         <v>1</v>
@@ -22862,7 +22862,7 @@
         <v>1</v>
       </c>
       <c r="H650">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I650">
         <v>1</v>
@@ -22897,7 +22897,7 @@
         <v>1</v>
       </c>
       <c r="H651">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I651">
         <v>1</v>
@@ -22932,7 +22932,7 @@
         <v>1</v>
       </c>
       <c r="H652">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I652">
         <v>1</v>
@@ -22967,7 +22967,7 @@
         <v>1</v>
       </c>
       <c r="H653">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I653">
         <v>1</v>
@@ -23002,7 +23002,7 @@
         <v>1</v>
       </c>
       <c r="H654">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I654">
         <v>1</v>
@@ -23037,7 +23037,7 @@
         <v>1</v>
       </c>
       <c r="H655">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I655">
         <v>1</v>
@@ -23072,7 +23072,7 @@
         <v>1</v>
       </c>
       <c r="H656">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I656">
         <v>1</v>
@@ -23107,7 +23107,7 @@
         <v>1</v>
       </c>
       <c r="H657">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I657">
         <v>1</v>
@@ -23142,7 +23142,7 @@
         <v>1</v>
       </c>
       <c r="H658">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I658">
         <v>1</v>
@@ -23177,7 +23177,7 @@
         <v>1</v>
       </c>
       <c r="H659">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I659">
         <v>1</v>
@@ -23212,7 +23212,7 @@
         <v>1</v>
       </c>
       <c r="H660">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I660">
         <v>1</v>
@@ -23247,7 +23247,7 @@
         <v>1</v>
       </c>
       <c r="H661">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I661">
         <v>1</v>
@@ -23282,7 +23282,7 @@
         <v>1</v>
       </c>
       <c r="H662">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I662">
         <v>1</v>
@@ -23317,7 +23317,7 @@
         <v>1</v>
       </c>
       <c r="H663">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I663">
         <v>1</v>
@@ -23352,7 +23352,7 @@
         <v>1</v>
       </c>
       <c r="H664">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I664">
         <v>1</v>
@@ -23387,7 +23387,7 @@
         <v>1</v>
       </c>
       <c r="H665">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I665">
         <v>1</v>
@@ -23422,7 +23422,7 @@
         <v>1</v>
       </c>
       <c r="H666">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I666">
         <v>1</v>
@@ -23457,7 +23457,7 @@
         <v>1</v>
       </c>
       <c r="H667">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I667">
         <v>1</v>
@@ -23492,7 +23492,7 @@
         <v>1</v>
       </c>
       <c r="H668">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I668">
         <v>1</v>
@@ -23527,7 +23527,7 @@
         <v>1</v>
       </c>
       <c r="H669">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I669">
         <v>1</v>
@@ -23562,7 +23562,7 @@
         <v>1</v>
       </c>
       <c r="H670">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I670">
         <v>1</v>
@@ -23597,7 +23597,7 @@
         <v>1</v>
       </c>
       <c r="H671">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I671">
         <v>1</v>
@@ -23632,7 +23632,7 @@
         <v>1</v>
       </c>
       <c r="H672">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I672">
         <v>1</v>
@@ -23667,7 +23667,7 @@
         <v>1</v>
       </c>
       <c r="H673">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I673">
         <v>1</v>
@@ -23702,7 +23702,7 @@
         <v>1</v>
       </c>
       <c r="H674">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I674">
         <v>1</v>
@@ -23737,7 +23737,7 @@
         <v>1</v>
       </c>
       <c r="H675">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I675">
         <v>1</v>
@@ -23772,7 +23772,7 @@
         <v>1</v>
       </c>
       <c r="H676">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I676">
         <v>1</v>
@@ -23807,7 +23807,7 @@
         <v>1</v>
       </c>
       <c r="H677">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I677">
         <v>1</v>
@@ -23842,7 +23842,7 @@
         <v>1</v>
       </c>
       <c r="H678">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I678">
         <v>1</v>
@@ -23877,7 +23877,7 @@
         <v>1</v>
       </c>
       <c r="H679">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I679">
         <v>1</v>
@@ -23912,7 +23912,7 @@
         <v>1</v>
       </c>
       <c r="H680">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I680">
         <v>1</v>
@@ -23947,7 +23947,7 @@
         <v>1</v>
       </c>
       <c r="H681">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I681">
         <v>1</v>
@@ -23982,7 +23982,7 @@
         <v>1</v>
       </c>
       <c r="H682">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I682">
         <v>1</v>
@@ -24017,7 +24017,7 @@
         <v>1</v>
       </c>
       <c r="H683">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I683">
         <v>1</v>
@@ -24052,7 +24052,7 @@
         <v>1</v>
       </c>
       <c r="H684">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I684">
         <v>1</v>
@@ -24087,7 +24087,7 @@
         <v>1</v>
       </c>
       <c r="H685">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I685">
         <v>1</v>
@@ -24122,7 +24122,7 @@
         <v>1</v>
       </c>
       <c r="H686">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I686">
         <v>1</v>
@@ -24157,7 +24157,7 @@
         <v>1</v>
       </c>
       <c r="H687">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I687">
         <v>1</v>
@@ -24192,7 +24192,7 @@
         <v>1</v>
       </c>
       <c r="H688">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I688">
         <v>1</v>
@@ -24227,7 +24227,7 @@
         <v>1</v>
       </c>
       <c r="H689">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I689">
         <v>1</v>
@@ -24262,7 +24262,7 @@
         <v>1</v>
       </c>
       <c r="H690">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I690">
         <v>1</v>
@@ -24297,7 +24297,7 @@
         <v>1</v>
       </c>
       <c r="H691">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I691">
         <v>1</v>
@@ -24332,7 +24332,7 @@
         <v>1</v>
       </c>
       <c r="H692">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I692">
         <v>1</v>
@@ -24367,7 +24367,7 @@
         <v>1</v>
       </c>
       <c r="H693">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I693">
         <v>1</v>
@@ -24402,7 +24402,7 @@
         <v>1</v>
       </c>
       <c r="H694">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I694">
         <v>1</v>
@@ -24437,7 +24437,7 @@
         <v>1</v>
       </c>
       <c r="H695">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I695">
         <v>1</v>
@@ -24472,7 +24472,7 @@
         <v>1</v>
       </c>
       <c r="H696">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I696">
         <v>1</v>
@@ -24507,7 +24507,7 @@
         <v>1</v>
       </c>
       <c r="H697">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I697">
         <v>1</v>
@@ -24542,7 +24542,7 @@
         <v>1</v>
       </c>
       <c r="H698">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I698">
         <v>1</v>
@@ -24577,7 +24577,7 @@
         <v>1</v>
       </c>
       <c r="H699">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I699">
         <v>1</v>
@@ -24612,7 +24612,7 @@
         <v>1</v>
       </c>
       <c r="H700">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I700">
         <v>1</v>
@@ -24647,7 +24647,7 @@
         <v>1</v>
       </c>
       <c r="H701">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I701">
         <v>1</v>
@@ -24682,7 +24682,7 @@
         <v>1</v>
       </c>
       <c r="H702">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I702">
         <v>1</v>
@@ -24717,7 +24717,7 @@
         <v>1</v>
       </c>
       <c r="H703">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I703">
         <v>1</v>
@@ -24752,7 +24752,7 @@
         <v>1</v>
       </c>
       <c r="H704">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I704">
         <v>1</v>
@@ -24787,7 +24787,7 @@
         <v>1</v>
       </c>
       <c r="H705">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I705">
         <v>1</v>
@@ -24822,7 +24822,7 @@
         <v>1</v>
       </c>
       <c r="H706">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I706">
         <v>1</v>
@@ -24857,7 +24857,7 @@
         <v>1</v>
       </c>
       <c r="H707">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I707">
         <v>1</v>
@@ -24892,7 +24892,7 @@
         <v>1</v>
       </c>
       <c r="H708">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I708">
         <v>1</v>
@@ -24927,7 +24927,7 @@
         <v>1</v>
       </c>
       <c r="H709">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I709">
         <v>1</v>
@@ -24962,7 +24962,7 @@
         <v>1</v>
       </c>
       <c r="H710">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I710">
         <v>1</v>
@@ -24997,7 +24997,7 @@
         <v>1</v>
       </c>
       <c r="H711">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I711">
         <v>1</v>
@@ -25032,7 +25032,7 @@
         <v>1</v>
       </c>
       <c r="H712">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I712">
         <v>1</v>
@@ -25067,7 +25067,7 @@
         <v>1</v>
       </c>
       <c r="H713">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I713">
         <v>1</v>
@@ -25102,7 +25102,7 @@
         <v>1</v>
       </c>
       <c r="H714">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I714">
         <v>1</v>
@@ -25137,7 +25137,7 @@
         <v>1</v>
       </c>
       <c r="H715">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I715">
         <v>1</v>
@@ -25172,7 +25172,7 @@
         <v>1</v>
       </c>
       <c r="H716">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I716">
         <v>1</v>
@@ -25207,7 +25207,7 @@
         <v>1</v>
       </c>
       <c r="H717">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I717">
         <v>1</v>
@@ -25242,7 +25242,7 @@
         <v>1</v>
       </c>
       <c r="H718">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I718">
         <v>1</v>
@@ -25277,7 +25277,7 @@
         <v>1</v>
       </c>
       <c r="H719">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I719">
         <v>1</v>
@@ -25312,7 +25312,7 @@
         <v>1</v>
       </c>
       <c r="H720">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I720">
         <v>1</v>
@@ -25347,7 +25347,7 @@
         <v>1</v>
       </c>
       <c r="H721">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I721">
         <v>1</v>
@@ -25382,7 +25382,7 @@
         <v>1</v>
       </c>
       <c r="H722">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I722">
         <v>1</v>
@@ -25417,7 +25417,7 @@
         <v>1</v>
       </c>
       <c r="H723">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I723">
         <v>1</v>
@@ -25452,7 +25452,7 @@
         <v>1</v>
       </c>
       <c r="H724">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I724">
         <v>1</v>
@@ -25487,7 +25487,7 @@
         <v>1</v>
       </c>
       <c r="H725">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I725">
         <v>1</v>
@@ -25522,7 +25522,7 @@
         <v>1</v>
       </c>
       <c r="H726">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I726">
         <v>1</v>
@@ -25557,7 +25557,7 @@
         <v>1</v>
       </c>
       <c r="H727">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I727">
         <v>1</v>
@@ -25592,7 +25592,7 @@
         <v>1</v>
       </c>
       <c r="H728">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I728">
         <v>1</v>
@@ -25627,7 +25627,7 @@
         <v>1</v>
       </c>
       <c r="H729">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I729">
         <v>1</v>
@@ -25662,7 +25662,7 @@
         <v>1</v>
       </c>
       <c r="H730">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I730">
         <v>1</v>
@@ -25697,7 +25697,7 @@
         <v>1</v>
       </c>
       <c r="H731">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I731">
         <v>1</v>
@@ -25732,7 +25732,7 @@
         <v>1</v>
       </c>
       <c r="H732">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I732">
         <v>1</v>
@@ -25767,7 +25767,7 @@
         <v>1</v>
       </c>
       <c r="H733">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I733">
         <v>1</v>
@@ -25802,7 +25802,7 @@
         <v>1</v>
       </c>
       <c r="H734">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I734">
         <v>1</v>
@@ -25837,7 +25837,7 @@
         <v>1</v>
       </c>
       <c r="H735">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I735">
         <v>1</v>
@@ -25872,7 +25872,7 @@
         <v>1</v>
       </c>
       <c r="H736">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I736">
         <v>1</v>
@@ -25907,7 +25907,7 @@
         <v>1</v>
       </c>
       <c r="H737">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I737">
         <v>1</v>
@@ -25942,7 +25942,7 @@
         <v>1</v>
       </c>
       <c r="H738">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I738">
         <v>1</v>
@@ -25977,7 +25977,7 @@
         <v>1</v>
       </c>
       <c r="H739">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I739">
         <v>1</v>
@@ -26012,7 +26012,7 @@
         <v>1</v>
       </c>
       <c r="H740">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I740">
         <v>1</v>
@@ -26047,7 +26047,7 @@
         <v>1</v>
       </c>
       <c r="H741">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I741">
         <v>1</v>
@@ -26082,7 +26082,7 @@
         <v>1</v>
       </c>
       <c r="H742">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I742">
         <v>1</v>
@@ -26117,7 +26117,7 @@
         <v>1</v>
       </c>
       <c r="H743">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I743">
         <v>1</v>
@@ -26152,7 +26152,7 @@
         <v>1</v>
       </c>
       <c r="H744">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I744">
         <v>1</v>
@@ -26187,7 +26187,7 @@
         <v>1</v>
       </c>
       <c r="H745">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I745">
         <v>1</v>
@@ -26222,7 +26222,7 @@
         <v>1</v>
       </c>
       <c r="H746">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I746">
         <v>1</v>
@@ -26257,7 +26257,7 @@
         <v>1</v>
       </c>
       <c r="H747">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I747">
         <v>1</v>
@@ -26292,7 +26292,7 @@
         <v>1</v>
       </c>
       <c r="H748">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I748">
         <v>1</v>
@@ -26327,7 +26327,7 @@
         <v>1</v>
       </c>
       <c r="H749">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I749">
         <v>1</v>
@@ -26422,7 +26422,7 @@
         <v>1</v>
       </c>
       <c r="I753">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J753">
         <v>1</v>
@@ -26457,7 +26457,7 @@
         <v>1</v>
       </c>
       <c r="I754">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J754">
         <v>1</v>
@@ -26492,7 +26492,7 @@
         <v>1</v>
       </c>
       <c r="I755">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J755">
         <v>1</v>
@@ -26527,7 +26527,7 @@
         <v>1</v>
       </c>
       <c r="I756">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J756">
         <v>1</v>
@@ -26562,7 +26562,7 @@
         <v>1</v>
       </c>
       <c r="I757">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J757">
         <v>1</v>
@@ -26597,7 +26597,7 @@
         <v>1</v>
       </c>
       <c r="I758">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J758">
         <v>1</v>
@@ -26632,7 +26632,7 @@
         <v>1</v>
       </c>
       <c r="I759">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J759">
         <v>1</v>
@@ -26667,7 +26667,7 @@
         <v>1</v>
       </c>
       <c r="I760">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J760">
         <v>1</v>
@@ -26702,7 +26702,7 @@
         <v>1</v>
       </c>
       <c r="I761">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J761">
         <v>1</v>
@@ -26737,7 +26737,7 @@
         <v>1</v>
       </c>
       <c r="I762">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J762">
         <v>1</v>
@@ -26772,7 +26772,7 @@
         <v>1</v>
       </c>
       <c r="I763">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J763">
         <v>1</v>
@@ -26807,7 +26807,7 @@
         <v>1</v>
       </c>
       <c r="I764">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J764">
         <v>1</v>
@@ -26842,7 +26842,7 @@
         <v>1</v>
       </c>
       <c r="I765">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J765">
         <v>1</v>
@@ -26877,7 +26877,7 @@
         <v>1</v>
       </c>
       <c r="I766">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J766">
         <v>1</v>
@@ -26912,7 +26912,7 @@
         <v>1</v>
       </c>
       <c r="I767">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J767">
         <v>1</v>
@@ -26947,7 +26947,7 @@
         <v>1</v>
       </c>
       <c r="I768">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J768">
         <v>1</v>
@@ -26982,7 +26982,7 @@
         <v>1</v>
       </c>
       <c r="I769">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J769">
         <v>1</v>
@@ -27017,7 +27017,7 @@
         <v>1</v>
       </c>
       <c r="I770">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J770">
         <v>1</v>
@@ -27052,7 +27052,7 @@
         <v>1</v>
       </c>
       <c r="I771">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J771">
         <v>1</v>
@@ -27087,7 +27087,7 @@
         <v>1</v>
       </c>
       <c r="I772">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J772">
         <v>1</v>
@@ -27122,7 +27122,7 @@
         <v>1</v>
       </c>
       <c r="I773">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J773">
         <v>1</v>
@@ -27157,7 +27157,7 @@
         <v>1</v>
       </c>
       <c r="I774">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J774">
         <v>1</v>
@@ -27192,7 +27192,7 @@
         <v>1</v>
       </c>
       <c r="I775">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J775">
         <v>1</v>
@@ -27227,7 +27227,7 @@
         <v>1</v>
       </c>
       <c r="I776">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J776">
         <v>1</v>
@@ -27262,7 +27262,7 @@
         <v>1</v>
       </c>
       <c r="I777">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J777">
         <v>1</v>
@@ -27297,7 +27297,7 @@
         <v>1</v>
       </c>
       <c r="I778">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J778">
         <v>1</v>
@@ -27332,7 +27332,7 @@
         <v>1</v>
       </c>
       <c r="I779">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J779">
         <v>1</v>
@@ -27367,7 +27367,7 @@
         <v>1</v>
       </c>
       <c r="I780">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J780">
         <v>1</v>
@@ -27402,7 +27402,7 @@
         <v>1</v>
       </c>
       <c r="I781">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J781">
         <v>1</v>
@@ -27437,7 +27437,7 @@
         <v>1</v>
       </c>
       <c r="I782">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J782">
         <v>1</v>
@@ -27472,7 +27472,7 @@
         <v>1</v>
       </c>
       <c r="I783">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J783">
         <v>1</v>
@@ -27507,7 +27507,7 @@
         <v>1</v>
       </c>
       <c r="I784">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J784">
         <v>1</v>
@@ -27542,7 +27542,7 @@
         <v>1</v>
       </c>
       <c r="I785">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J785">
         <v>1</v>
@@ -27577,7 +27577,7 @@
         <v>1</v>
       </c>
       <c r="I786">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J786">
         <v>1</v>
@@ -27612,7 +27612,7 @@
         <v>1</v>
       </c>
       <c r="I787">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J787">
         <v>1</v>
@@ -27647,7 +27647,7 @@
         <v>1</v>
       </c>
       <c r="I788">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J788">
         <v>1</v>
@@ -27682,7 +27682,7 @@
         <v>1</v>
       </c>
       <c r="I789">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J789">
         <v>1</v>
@@ -27717,7 +27717,7 @@
         <v>1</v>
       </c>
       <c r="I790">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J790">
         <v>1</v>
@@ -27752,7 +27752,7 @@
         <v>1</v>
       </c>
       <c r="I791">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J791">
         <v>1</v>
@@ -27787,7 +27787,7 @@
         <v>1</v>
       </c>
       <c r="I792">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J792">
         <v>1</v>
@@ -27822,7 +27822,7 @@
         <v>1</v>
       </c>
       <c r="I793">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J793">
         <v>1</v>
@@ -27857,7 +27857,7 @@
         <v>1</v>
       </c>
       <c r="I794">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J794">
         <v>1</v>
@@ -27892,7 +27892,7 @@
         <v>1</v>
       </c>
       <c r="I795">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J795">
         <v>1</v>
@@ -27927,7 +27927,7 @@
         <v>1</v>
       </c>
       <c r="I796">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J796">
         <v>1</v>
@@ -27962,7 +27962,7 @@
         <v>1</v>
       </c>
       <c r="I797">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J797">
         <v>1</v>
@@ -27997,7 +27997,7 @@
         <v>1</v>
       </c>
       <c r="I798">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J798">
         <v>1</v>
@@ -28032,7 +28032,7 @@
         <v>1</v>
       </c>
       <c r="I799">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J799">
         <v>1</v>
@@ -28067,7 +28067,7 @@
         <v>1</v>
       </c>
       <c r="I800">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J800">
         <v>1</v>
@@ -28102,7 +28102,7 @@
         <v>1</v>
       </c>
       <c r="I801">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J801">
         <v>1</v>
@@ -28137,7 +28137,7 @@
         <v>1</v>
       </c>
       <c r="I802">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J802">
         <v>1</v>
@@ -28172,7 +28172,7 @@
         <v>1</v>
       </c>
       <c r="I803">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J803">
         <v>1</v>
@@ -28207,7 +28207,7 @@
         <v>1</v>
       </c>
       <c r="I804">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J804">
         <v>1</v>
@@ -28242,7 +28242,7 @@
         <v>1</v>
       </c>
       <c r="I805">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J805">
         <v>1</v>
@@ -28277,7 +28277,7 @@
         <v>1</v>
       </c>
       <c r="I806">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J806">
         <v>1</v>
@@ -28312,7 +28312,7 @@
         <v>1</v>
       </c>
       <c r="I807">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J807">
         <v>1</v>
@@ -28347,7 +28347,7 @@
         <v>1</v>
       </c>
       <c r="I808">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J808">
         <v>1</v>
@@ -28382,7 +28382,7 @@
         <v>1</v>
       </c>
       <c r="I809">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J809">
         <v>1</v>
@@ -28417,7 +28417,7 @@
         <v>1</v>
       </c>
       <c r="I810">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J810">
         <v>1</v>
@@ -28452,7 +28452,7 @@
         <v>1</v>
       </c>
       <c r="I811">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J811">
         <v>1</v>
@@ -28487,7 +28487,7 @@
         <v>1</v>
       </c>
       <c r="I812">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J812">
         <v>1</v>
@@ -28522,7 +28522,7 @@
         <v>1</v>
       </c>
       <c r="I813">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J813">
         <v>1</v>
@@ -28557,7 +28557,7 @@
         <v>1</v>
       </c>
       <c r="I814">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J814">
         <v>1</v>
@@ -28592,7 +28592,7 @@
         <v>1</v>
       </c>
       <c r="I815">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J815">
         <v>1</v>
@@ -28627,7 +28627,7 @@
         <v>1</v>
       </c>
       <c r="I816">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J816">
         <v>1</v>
@@ -28662,7 +28662,7 @@
         <v>1</v>
       </c>
       <c r="I817">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J817">
         <v>1</v>
@@ -28697,7 +28697,7 @@
         <v>1</v>
       </c>
       <c r="I818">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J818">
         <v>1</v>
@@ -28732,7 +28732,7 @@
         <v>1</v>
       </c>
       <c r="I819">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J819">
         <v>1</v>
@@ -28767,7 +28767,7 @@
         <v>1</v>
       </c>
       <c r="I820">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J820">
         <v>1</v>
@@ -28802,7 +28802,7 @@
         <v>1</v>
       </c>
       <c r="I821">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J821">
         <v>1</v>
@@ -28837,7 +28837,7 @@
         <v>1</v>
       </c>
       <c r="I822">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J822">
         <v>1</v>
@@ -28872,7 +28872,7 @@
         <v>1</v>
       </c>
       <c r="I823">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J823">
         <v>1</v>
@@ -28907,7 +28907,7 @@
         <v>1</v>
       </c>
       <c r="I824">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J824">
         <v>1</v>
@@ -28942,7 +28942,7 @@
         <v>1</v>
       </c>
       <c r="I825">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J825">
         <v>1</v>
@@ -28977,7 +28977,7 @@
         <v>1</v>
       </c>
       <c r="I826">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J826">
         <v>1</v>
@@ -29012,7 +29012,7 @@
         <v>1</v>
       </c>
       <c r="I827">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J827">
         <v>1</v>
@@ -29047,7 +29047,7 @@
         <v>1</v>
       </c>
       <c r="I828">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J828">
         <v>1</v>
@@ -29082,7 +29082,7 @@
         <v>1</v>
       </c>
       <c r="I829">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J829">
         <v>1</v>
@@ -29117,7 +29117,7 @@
         <v>1</v>
       </c>
       <c r="I830">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J830">
         <v>1</v>
@@ -29152,7 +29152,7 @@
         <v>1</v>
       </c>
       <c r="I831">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J831">
         <v>1</v>
@@ -29187,7 +29187,7 @@
         <v>1</v>
       </c>
       <c r="I832">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J832">
         <v>1</v>
@@ -29222,7 +29222,7 @@
         <v>1</v>
       </c>
       <c r="I833">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J833">
         <v>1</v>
@@ -29257,7 +29257,7 @@
         <v>1</v>
       </c>
       <c r="I834">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J834">
         <v>1</v>
@@ -29292,7 +29292,7 @@
         <v>1</v>
       </c>
       <c r="I835">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J835">
         <v>1</v>
@@ -29327,7 +29327,7 @@
         <v>1</v>
       </c>
       <c r="I836">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J836">
         <v>1</v>
@@ -29362,7 +29362,7 @@
         <v>1</v>
       </c>
       <c r="I837">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J837">
         <v>1</v>
@@ -29397,7 +29397,7 @@
         <v>1</v>
       </c>
       <c r="I838">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J838">
         <v>1</v>
@@ -29432,7 +29432,7 @@
         <v>1</v>
       </c>
       <c r="I839">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J839">
         <v>1</v>
@@ -29467,7 +29467,7 @@
         <v>1</v>
       </c>
       <c r="I840">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J840">
         <v>1</v>
@@ -29502,7 +29502,7 @@
         <v>1</v>
       </c>
       <c r="I841">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J841">
         <v>1</v>
@@ -29537,7 +29537,7 @@
         <v>1</v>
       </c>
       <c r="I842">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J842">
         <v>1</v>
@@ -29572,7 +29572,7 @@
         <v>1</v>
       </c>
       <c r="I843">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J843">
         <v>1</v>
@@ -29607,7 +29607,7 @@
         <v>1</v>
       </c>
       <c r="I844">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J844">
         <v>1</v>
@@ -29642,7 +29642,7 @@
         <v>1</v>
       </c>
       <c r="I845">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J845">
         <v>1</v>
@@ -29677,7 +29677,7 @@
         <v>1</v>
       </c>
       <c r="I846">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J846">
         <v>1</v>
@@ -29712,7 +29712,7 @@
         <v>1</v>
       </c>
       <c r="I847">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J847">
         <v>1</v>
@@ -29747,7 +29747,7 @@
         <v>1</v>
       </c>
       <c r="I848">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J848">
         <v>1</v>
@@ -29782,7 +29782,7 @@
         <v>1</v>
       </c>
       <c r="I849">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J849">
         <v>1</v>
@@ -29817,7 +29817,7 @@
         <v>1</v>
       </c>
       <c r="I850">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J850">
         <v>1</v>
@@ -29852,7 +29852,7 @@
         <v>1</v>
       </c>
       <c r="I851">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J851">
         <v>1</v>
@@ -29887,7 +29887,7 @@
         <v>1</v>
       </c>
       <c r="I852">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J852">
         <v>1</v>
@@ -29922,7 +29922,7 @@
         <v>1</v>
       </c>
       <c r="I853">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J853">
         <v>1</v>
@@ -29957,7 +29957,7 @@
         <v>1</v>
       </c>
       <c r="I854">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J854">
         <v>1</v>
@@ -29992,7 +29992,7 @@
         <v>1</v>
       </c>
       <c r="I855">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J855">
         <v>1</v>
@@ -30027,7 +30027,7 @@
         <v>1</v>
       </c>
       <c r="I856">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J856">
         <v>1</v>
